--- a/tests/output/1_b_Settlement Statement_output.xlsx
+++ b/tests/output/1_b_Settlement Statement_output.xlsx
@@ -7,11 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Table_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Table_2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Table_3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Table_4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="All_Text" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Page_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Page_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Page_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Page_4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,302 +416,308 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="J1:BO29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>SETTLEMENT ADJUSTMENT SHEET</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>YAGA PURCHASE FROM ROSSIDES</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>PROPERTY: 13 MELBOURNE STREET, OXLEY PARK</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>Settlement Date: 12 August 2020</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>Adjustment Date: 12 August 2020</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>Payable by Vendor</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="BB6" t="inlineStr">
         <is>
           <t>Payable by Purchaser</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="7">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Purchase Price</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
+      <c r="BG7" t="inlineStr">
         <is>
           <t>$820,000.00</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="8">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Less Deposit Paid</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
+      <c r="BH8" t="inlineStr">
         <is>
           <t>$41,000.00</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="9">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Balance</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
+      <c r="BG9" t="inlineStr">
         <is>
           <t>$779,000.00</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="10">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Council Rates</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="J11" t="inlineStr">
         <is>
           <t>For period 1/07/2020 to 30/09/2020 - 92 days</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="J12" t="inlineStr">
         <is>
           <t>$520.61 Adjusted as Paid</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Purchaser allows 49 days</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    </row>
+    <row r="14">
+      <c r="J14" t="inlineStr">
         <is>
           <t>For Period 12/08/2020 to 30/09/2020</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
+      <c r="BJ14" t="inlineStr">
         <is>
           <t>$277.28</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="15">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Water &amp; Sewerage Rates</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="J16" t="inlineStr">
         <is>
           <t>For period 1/07/2020 to 30/09/2020 - 92 days</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="J17" t="inlineStr">
         <is>
           <t>$19.22 Adjusted as Paid</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    </row>
+    <row r="18">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Purchaser allows 49 days</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="J19" t="inlineStr">
         <is>
           <t>For Period 12/08/2020 to 30/09/2020</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
+      <c r="BK19" t="inlineStr">
         <is>
           <t>$10.24</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="20">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Water Usage</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Last meter reading 7/06/2020</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Daily average = 0.619kL</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="J23" t="inlineStr">
         <is>
           <t>40.854kL calculated at $2.35/kL = $96.01</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    </row>
+    <row r="24">
+      <c r="J24" t="inlineStr">
         <is>
           <t>Vendor allows 66 days (40.854kL)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="J25" t="inlineStr">
         <is>
           <t>For period 7/06/2020 to 12/08/2020</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="AW25" t="inlineStr">
         <is>
           <t>$96.01</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    </row>
+    <row r="26">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Vendor allows for Discharge of Mortgage</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="AV26" t="inlineStr">
         <is>
           <t>$146.40</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Totals</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="AV27" t="inlineStr">
         <is>
           <t>$242.41</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="BG27" t="inlineStr">
         <is>
           <t>$779,287.52</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="28">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Less Amount Payable by Vendor</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
+      <c r="BJ28" t="inlineStr">
         <is>
           <t>$242.41</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="29">
+      <c r="J29" t="inlineStr">
         <is>
           <t>AMOUNT DUE ON SETTLEMENT</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
+      <c r="BG29" t="inlineStr">
         <is>
           <t>$779,045.11</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="J11:AK11"/>
+    <mergeCell ref="J25:AE25"/>
+    <mergeCell ref="J8:T8"/>
+    <mergeCell ref="J16:AK16"/>
+    <mergeCell ref="J29:AC29"/>
+    <mergeCell ref="J12:Y12"/>
+    <mergeCell ref="J14:AF14"/>
+    <mergeCell ref="AA1:AW1"/>
+    <mergeCell ref="J19:AF19"/>
+    <mergeCell ref="J20:R20"/>
+    <mergeCell ref="J28:AC28"/>
+    <mergeCell ref="X3:BA3"/>
+    <mergeCell ref="J18:Y18"/>
+    <mergeCell ref="AP6:BA6"/>
+    <mergeCell ref="J22:X22"/>
+    <mergeCell ref="J23:AH23"/>
+    <mergeCell ref="J24:AC24"/>
+    <mergeCell ref="AC5:AV5"/>
+    <mergeCell ref="J21:AA21"/>
+    <mergeCell ref="J13:Y13"/>
+    <mergeCell ref="AC4:AV4"/>
+    <mergeCell ref="BB6:BO6"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="J15:Y15"/>
+    <mergeCell ref="J10:R10"/>
+    <mergeCell ref="J26:AH26"/>
+    <mergeCell ref="AC2:AV2"/>
+    <mergeCell ref="J7:S7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -723,104 +728,174 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="I1:BG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>S
-ettlement Date: Wednesday, 12 August 2020</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr"/>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>SETTLEMENT STATEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>YAGA PURCHASE FROM ROSSIDES</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>PROPERTY: 13 MELBOURNE STREET, OXLEY PARK</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Settlement Date: Wednesday, 12 August 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>COSTS</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Funds required to settle:</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Amount due on settlement as per settlement adjustment sheet</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="BE7" t="inlineStr">
         <is>
           <t>$779,045.11</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="8">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Stamp Duty</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="BE8" t="inlineStr">
         <is>
           <t>$32,255.00</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="9">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Registration Fees</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="BG9" t="inlineStr">
         <is>
           <t>$439.20</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="10">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Our account</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="BF10" t="inlineStr">
         <is>
           <t>$1,251.04</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="11">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Electronic Settlement Fee</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="BG11" t="inlineStr">
         <is>
           <t>$114.07</t>
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>TOTAL:</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>$813,104.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>CREDITS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>AMOUNT PROVIDED BY YOUR MORTGAGEE</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>$720,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>BALANCE DUE BY YOU FOR SETTLEMENT</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>$93,104.42</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="I6:W6"/>
+    <mergeCell ref="I7:AQ7"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="I11:W11"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="I14:AG14"/>
+    <mergeCell ref="AB1:AR1"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="AA2:AT2"/>
+    <mergeCell ref="I4:AH4"/>
+    <mergeCell ref="W3:AX3"/>
+    <mergeCell ref="I15:AE15"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -831,217 +906,292 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="J1:BO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Our Ref:</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>KM:13316</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>ABN:</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>98 337 896 797</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>26 July 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>K K Yaga</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1/513 Willoughby Road</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>WILLOUGHBY NSW 2068</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>TAX INVOICE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Your Purchase from Rossides</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Property: 13 Melbourne Street, Oxley Park</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>P
-rofessional Fees</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Professional Fees</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
+      <c r="BH11" t="inlineStr">
         <is>
           <t>Total Ex GST</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="12">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Balance of Conveyancing Fee in accordance with Fees Agreement</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
+      <c r="BJ12" t="inlineStr">
         <is>
           <t>$790.00</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
+    <row r="13">
+      <c r="AY13" t="inlineStr">
         <is>
           <t>Sub-Total</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="BJ13" t="inlineStr">
         <is>
           <t>$790.00</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
+    <row r="14">
+      <c r="AW14" t="inlineStr">
         <is>
           <t>GST on fees</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="BK14" t="inlineStr">
         <is>
           <t>$79.00</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="15">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="BA16" t="inlineStr">
         <is>
           <t>GST</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="BH16" t="inlineStr">
         <is>
           <t>Total Ex GST</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="17">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Searches and Certificates</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="AZ17" t="inlineStr">
         <is>
           <t>$4.91</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="BJ17" t="inlineStr">
         <is>
           <t>$289.13</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="18">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Sundry disbursements in accordance with Fees Agreement</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="AZ18" t="inlineStr">
         <is>
           <t>$8.00</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="BK18" t="inlineStr">
         <is>
           <t>$80.00</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
+    <row r="19">
+      <c r="BJ19" t="inlineStr">
         <is>
           <t>$369.13</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="20">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Total incl GST</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
+      <c r="BI20" t="inlineStr">
         <is>
           <t>$1,251.04</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Amount 
-+GST</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="21">
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>+GST</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>- Payments Received</t>
         </is>
       </c>
-      <c r="C14">
+      <c r="BF21">
         <f> BALANCE DUE</f>
         <v/>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>$1,159.13 
-$91.91</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+    <row r="22">
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>$1,159.13</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>$91.91</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
         <is>
           <t>$0.00</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="BI22" t="inlineStr">
         <is>
           <t>$1,251.04</t>
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Payment of this invoice has been included in your Settlement Statement.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="AP1:AU1"/>
+    <mergeCell ref="J18:AR18"/>
+    <mergeCell ref="J6:X6"/>
+    <mergeCell ref="AQ21:BB21"/>
+    <mergeCell ref="J5:W5"/>
+    <mergeCell ref="BH16:BO16"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J10:T10"/>
+    <mergeCell ref="BF21:BO21"/>
+    <mergeCell ref="AZ2:BI2"/>
+    <mergeCell ref="J20:R20"/>
+    <mergeCell ref="J9:AI9"/>
+    <mergeCell ref="J17:Y17"/>
+    <mergeCell ref="AW14:BD14"/>
+    <mergeCell ref="R23:BH23"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="J12:AV12"/>
+    <mergeCell ref="J8:AA8"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="BH11:BO11"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1052,211 +1202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Your Purchase from Rossides</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Property: 13 Melbourne Street, Oxley Park</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>P
-rofessional Fees</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Subject</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Total Ex GST</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>50% of Conveyancing Fee referred to in Fees Agreement</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>$790.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sub-Total</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>$790.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>GST on fees</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>$79.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Expenses</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Subject</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>GST</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Total Ex GST</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Searches and Certificates</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>$5.18</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>$143.94</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>$143.94</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Total incl GST</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>$1,018.12</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Amount 
-+GST</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>- Payments Received</t>
-        </is>
-      </c>
-      <c r="C13">
-        <f> BALANCE DUE</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>$933.94 
-$84.18</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>$1,018.12</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="J1:BN22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1265,98 +1211,265 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>SETTLEMENT ADJUSTMENT SHEET
-YAGA PURCHASE FROM ROSSIDES
-PROPERTY: 13 MELBOURNE STREET, OXLEY PARK
-Settlement Date: 12 August 2020
-Adjustment Date: 12 August 2020
-Payable by Vendor Payable by Purchaser
-Purchase Price $820,000.00
-Less Deposit Paid $41,000.00
-Balance $779,000.00
-Council Rates
-For period 1/07/2020 to 30/09/2020 - 92 days
-$520.61 Adjusted as Paid
-Purchaser allows 49 days
-For Period 12/08/2020 to 30/09/2020 $277.28
-Water &amp; Sewerage Rates
-For period 1/07/2020 to 30/09/2020 - 92 days
-$19.22 Adjusted as Paid
-Purchaser allows 49 days
-For Period 12/08/2020 to 30/09/2020 $10.24
-Water Usage
-Last meter reading 7/06/2020
-Daily average = 0.619kL
-40.854kL calculated at $2.35/kL = $96.01
-Vendor allows 66 days (40.854kL)
-For period 7/06/2020 to 12/08/2020 $96.01
-Vendor allows for Discharge of Mortgage $146.40
-Totals $242.41 $779,287.52
-Less Amount Payable by Vendor $242.41
-AMOUNT DUE ON SETTLEMENT $779,045.11\n\n--- End of Page 1 ---\n\nSETTLEMENT STATEMENT
-YAGA PURCHASE FROM ROSSIDES
-PROPERTY: 13 MELBOURNE STREET, OXLEY PARK
-Settlement Date: Wednesday, 12 August 2020
-COSTS
-Funds required to settle:
-Amount due on settlement as per settlement adjustment sheet $779,045.11
-Stamp Duty $32,255.00
-Registration Fees $439.20
-Our account $1,251.04
-Electronic Settlement Fee $114.07
-TOTAL: $813,104.42
-CREDITS
-AMOUNT PROVIDED BY YOUR MORTGAGEE $720,000.00
-BALANCE DUE BY YOU FOR SETTLEMENT $93,104.42\n\n--- End of Page 2 ---\n\nOur Ref: KM:13316
-ABN: 98 337 896 797
-26 July 2020
-K K Yaga
-1/513 Willoughby Road
-WILLOUGHBY NSW 2068
-TAX INVOICE
-Your Purchase from Rossides
-Property: 13 Melbourne Street, Oxley Park
-Professional Fees
-Subject Total Ex GST
-Balance of Conveyancing Fee in accordance with Fees Agreement $790.00
-Sub-Total $790.00
-GST on fees $79.00
-Expenses
-Subject GST Total Ex GST
-Searches and Certificates $4.91 $289.13
-Sundry disbursements in accordance with Fees Agreement $8.00 $80.00
-$369.13
-Total incl GST $1,251.04
-Amount +GST - Payments Received = BALANCE DUE
-$1,159.13 $91.91 $0.00 $1,251.04
-Payment of this invoice has been included in your Settlement Statement.\n\n--- End of Page 3 ---\n\nOur Ref: KM:13316
-ABN: 98 337 896 797
-26 July 2020
-K K Yaga
-1/513 Willoughby Road
-WILLOUGHBY NSW 2068
-TAX INVOICE
-Your Purchase from Rossides
-Property: 13 Melbourne Street, Oxley Park
-Professional Fees
-Subject Total Ex GST
-50% of Conveyancing Fee referred to in Fees Agreement $790.00
-Sub-Total $790.00
-GST on fees $79.00
-Expenses
-Subject GST Total Ex GST
-Searches and Certificates $5.18 $143.94
-$143.94
-Total incl GST $1,018.12
-Amount +GST - Payments Received = BALANCE DUE
-$933.94 $84.18 $1,018.12 $0.00
-Thank you for your payment.\n\n--- End of Page 4 ---\n\n</t>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Our Ref:</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>KM:13316</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>ABN:</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>98 337 896 797</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>26 July 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>K K Yaga</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1/513 Willoughby Road</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>WILLOUGHBY NSW 2068</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>TAX INVOICE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Your Purchase from Rossides</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Property: 13 Melbourne Street, Oxley Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Professional Fees</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Subject</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>Total Ex GST</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>50% of Conveyancing Fee referred to in Fees Agreement</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>$790.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Sub-Total</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>$790.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>GST on fees</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>$79.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Subject</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>GST</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>Total Ex GST</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Searches and Certificates</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>$5.18</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>$143.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>$143.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Total incl GST</t>
+        </is>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>$1,018.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>+GST</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>- Payments Received</t>
+        </is>
+      </c>
+      <c r="BE20">
+        <f> BALANCE DUE</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>$933.94</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>$84.18</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>$1,018.12</t>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>Thank you for your payment.</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="J6:X6"/>
+    <mergeCell ref="J5:W5"/>
+    <mergeCell ref="J10:T10"/>
+    <mergeCell ref="J17:Y17"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="AZ2:BH2"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="J12:AP12"/>
+    <mergeCell ref="J9:AH9"/>
+    <mergeCell ref="BE20:BN20"/>
+    <mergeCell ref="BG11:BN11"/>
+    <mergeCell ref="AP20:BB20"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="J19:R19"/>
+    <mergeCell ref="AD22:AT22"/>
+    <mergeCell ref="AW14:BC14"/>
+    <mergeCell ref="BG16:BN16"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/output/1_b_Settlement Statement_output.xlsx
+++ b/tests/output/1_b_Settlement Statement_output.xlsx
@@ -7,17 +7,17 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="All_Text" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Table_1_Page_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Table_2_Page_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Table_3_Page_3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Table_4_Page_3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Table_5_Page_3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Table_6_Page_3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Table_7_Page_4" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Table_8_Page_4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Table_9_Page_4" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Table_10_Page_4" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="All_Text_Fallback" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table_pdfplumber_1_P1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Table_pdfplumber_2_P2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Table_pdfplumber_3_P3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Table_pdfplumber_4_P3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Table_pdfplumber_5_P3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Table_pdfplumber_6_P3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Table_pdfplumber_7_P4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Table_pdfplumber_8_P4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Table_pdfplumber_9_P4" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Table_pdfplumber_10_P4" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,7 +462,7 @@
 Vendor allows for Discharge of Mortgage $146.40
 Totals $242.41 $779,287.52
 Less Amount Payable by Vendor $242.41
-AMOUNT DUE ON SETTLEMENT $779,045.11\n\n--- End of Page 1 ---\n\nSETTLEMENT STATEMENT
+AMOUNT DUE ON SETTLEMENT $779,045.11SETTLEMENT STATEMENT
 YAGA PURCHASE FROM ROSSIDES
 PROPERTY: 13 MELBOURNE STREET, OXLEY PARK
 Settlement Date: Wednesday, 12 August 2020
@@ -476,7 +476,7 @@
 TOTAL: $813,104.42
 CREDITS
 AMOUNT PROVIDED BY YOUR MORTGAGEE $720,000.00
-BALANCE DUE BY YOU FOR SETTLEMENT $93,104.42\n\n--- End of Page 2 ---\n\nOur Ref: KM:13316
+BALANCE DUE BY YOU FOR SETTLEMENT $93,104.42Our Ref: KM:13316
 ABN: 98 337 896 797
 26 July 2020
 K K Yaga
@@ -498,7 +498,7 @@
 Total incl GST $1,251.04
 Amount +GST - Payments Received = BALANCE DUE
 $1,159.13 $91.91 $0.00 $1,251.04
-Payment of this invoice has been included in your Settlement Statement.\n\n--- End of Page 3 ---\n\nOur Ref: KM:13316
+Payment of this invoice has been included in your Settlement Statement.Our Ref: KM:13316
 ABN: 98 337 896 797
 26 July 2020
 K K Yaga
@@ -519,7 +519,7 @@
 Total incl GST $1,018.12
 Amount +GST - Payments Received = BALANCE DUE
 $933.94 $84.18 $1,018.12 $0.00
-Thank you for your payment.\n\n--- End of Page 4 ---\n\n</t>
+Thank you for your payment.</t>
         </is>
       </c>
     </row>
